--- a/1. Input Data/Consolidated Affiliations/Consolidated Affiliations.xlsx
+++ b/1. Input Data/Consolidated Affiliations/Consolidated Affiliations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uctcloud-my.sharepoint.com/personal/jhnmat015_myuct_ac_za/Documents/Masters_thesis/Data checks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MattJohnson/Desktop/Affiliations/1. Input Data/Consolidated Affiliations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5113" documentId="8_{0DCC3E9D-6F30-7643-834B-C7039417C2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B6601AC-A98B-144D-869A-FD2F421ABA1D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAF1444-E05E-E642-9162-D1532ED2DE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="500" windowWidth="35520" windowHeight="17000" activeTab="8" xr2:uid="{489B1480-9081-AB40-A1DA-785309E4EEA6}"/>
+    <workbookView xWindow="1400" yWindow="500" windowWidth="35520" windowHeight="17000" activeTab="5" xr2:uid="{489B1480-9081-AB40-A1DA-785309E4EEA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Comma in name" sheetId="5" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="Misspellings" sheetId="1" r:id="rId3"/>
     <sheet name="Colleges Full" sheetId="6" r:id="rId4"/>
     <sheet name="Colleges" sheetId="3" r:id="rId5"/>
-    <sheet name="Final Consolidate" sheetId="16" r:id="rId6"/>
-    <sheet name="Fuzzy match" sheetId="14" r:id="rId7"/>
-    <sheet name="Systems" sheetId="11" r:id="rId8"/>
-    <sheet name="To check" sheetId="12" r:id="rId9"/>
+    <sheet name="Correct" sheetId="17" r:id="rId6"/>
+    <sheet name="Final Consolidate" sheetId="16" r:id="rId7"/>
+    <sheet name="Fuzzy match" sheetId="14" r:id="rId8"/>
+    <sheet name="Systems" sheetId="11" r:id="rId9"/>
+    <sheet name="To check" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Misspellings!$A$1:$C$1</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6918" uniqueCount="4062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8394" uniqueCount="4088">
   <si>
     <t>Incorrect spelling</t>
   </si>
@@ -12233,6 +12234,84 @@
   </si>
   <si>
     <t>Institut Européen D'Administration Des Affaires (Insead)</t>
+  </si>
+  <si>
+    <t>Amos Tuck School</t>
+  </si>
+  <si>
+    <t>Anderson School Of Management</t>
+  </si>
+  <si>
+    <t>City College</t>
+  </si>
+  <si>
+    <t>Decision Sciences</t>
+  </si>
+  <si>
+    <t>Division Of International Finance</t>
+  </si>
+  <si>
+    <t>Dube University</t>
+  </si>
+  <si>
+    <t>Economics Department</t>
+  </si>
+  <si>
+    <t>Faculty Of Business</t>
+  </si>
+  <si>
+    <t>Faculty Of Industrial Engineering</t>
+  </si>
+  <si>
+    <t>Federal Reserve Bank Of St. Louis</t>
+  </si>
+  <si>
+    <t>Frb Of Minneapolis</t>
+  </si>
+  <si>
+    <t>Fuqua School Of Business</t>
+  </si>
+  <si>
+    <t>Groningen University</t>
+  </si>
+  <si>
+    <t>Haas School Of Business</t>
+  </si>
+  <si>
+    <t>Haifa University</t>
+  </si>
+  <si>
+    <t>Indiana Central College</t>
+  </si>
+  <si>
+    <t>Kellogg School Of Management</t>
+  </si>
+  <si>
+    <t>Kennedy School Of Government</t>
+  </si>
+  <si>
+    <t>London School Of Economics And Political Sciences</t>
+  </si>
+  <si>
+    <t>Mit Sloan School Of Management</t>
+  </si>
+  <si>
+    <t>Northeastern University</t>
+  </si>
+  <si>
+    <t>Policy Research International Monetary Fund</t>
+  </si>
+  <si>
+    <t>Political Science Department</t>
+  </si>
+  <si>
+    <t>Society Of Fellows</t>
+  </si>
+  <si>
+    <t>Universitt Of Washington</t>
+  </si>
+  <si>
+    <t>University Of Salford</t>
   </si>
 </sst>
 </file>
@@ -12450,47 +12529,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="164">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="160">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -16276,151 +16315,594 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="163" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="162" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="duplicateValues" dxfId="161" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="duplicateValues" dxfId="160" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60">
-    <cfRule type="duplicateValues" dxfId="159" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="158" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="157" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="156" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="duplicateValues" dxfId="155" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:A68">
-    <cfRule type="duplicateValues" dxfId="154" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="153" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="152" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71">
-    <cfRule type="duplicateValues" dxfId="151" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73">
-    <cfRule type="duplicateValues" dxfId="150" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="duplicateValues" dxfId="149" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A76">
-    <cfRule type="duplicateValues" dxfId="148" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:A79">
-    <cfRule type="duplicateValues" dxfId="147" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:A86">
-    <cfRule type="duplicateValues" dxfId="146" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="145" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="144" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="143" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90">
-    <cfRule type="duplicateValues" dxfId="142" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91:A92">
-    <cfRule type="duplicateValues" dxfId="141" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="140" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A201:A1048576 A94:A133 A2:A8 A10:A11 A13:A15 A17 A22 A28:A31 A35:A36 A50 A77 A135:A199">
-    <cfRule type="duplicateValues" dxfId="139" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="duplicateValues" dxfId="138" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:B66">
-    <cfRule type="duplicateValues" dxfId="137" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="136" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="duplicateValues" dxfId="135" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="duplicateValues" dxfId="134" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="duplicateValues" dxfId="133" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="duplicateValues" dxfId="132" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67:B68">
-    <cfRule type="duplicateValues" dxfId="131" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="duplicateValues" dxfId="130" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="duplicateValues" dxfId="129" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="128" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="duplicateValues" dxfId="127" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="duplicateValues" dxfId="126" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="duplicateValues" dxfId="125" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="124" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="duplicateValues" dxfId="123" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88">
-    <cfRule type="duplicateValues" dxfId="122" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="duplicateValues" dxfId="121" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="duplicateValues" dxfId="120" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91:B92">
-    <cfRule type="duplicateValues" dxfId="119" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="118" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B141">
-    <cfRule type="duplicateValues" dxfId="117" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B147">
-    <cfRule type="duplicateValues" dxfId="116" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B151">
-    <cfRule type="duplicateValues" dxfId="115" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE31DFB-E9FE-4B44-A0BB-A951970C5DFB}">
+  <dimension ref="A1:M36"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="42.5" customWidth="1"/>
+    <col min="6" max="6" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.33203125" customWidth="1"/>
+    <col min="11" max="11" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3426</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3427</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>3428</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3429</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3430</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>976</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2435</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2434</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3431</v>
+      </c>
+      <c r="J2" t="s">
+        <v>340</v>
+      </c>
+      <c r="K2" t="s">
+        <v>274</v>
+      </c>
+      <c r="L2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2060</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3432</v>
+      </c>
+      <c r="J3" t="s">
+        <v>913</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2114</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2108</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3434</v>
+      </c>
+      <c r="J4" t="s">
+        <v>971</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2944</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>3435</v>
+      </c>
+      <c r="M4" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3436</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2030</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3437</v>
+      </c>
+      <c r="J5" t="s">
+        <v>978</v>
+      </c>
+      <c r="K5" t="s">
+        <v>256</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D6" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" t="s">
+        <v>754</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3438</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1494</v>
+      </c>
+      <c r="K6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D7" s="17" t="s">
+        <v>2524</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3439</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2521</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3440</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1787</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" t="s">
+        <v>945</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D8" s="17" t="s">
+        <v>3442</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" t="s">
+        <v>3196</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3434</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>3443</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J9" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D10" s="17" t="s">
+        <v>3444</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="J10" t="s">
+        <v>1810</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D13" s="19" t="s">
+        <v>3450</v>
+      </c>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D14" s="19" t="s">
+        <v>2814</v>
+      </c>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>3452</v>
+      </c>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>3453</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>3454</v>
+      </c>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3448</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>834</v>
+      </c>
+      <c r="E21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>636</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" t="s">
+        <v>844</v>
+      </c>
+      <c r="E23" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>3459</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>3460</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="16" t="s">
+        <v>3075</v>
+      </c>
+      <c r="E26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>3075</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D29" s="1" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D30" s="20" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>880</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -17549,98 +18031,98 @@
     <sortCondition ref="A1:A137"/>
   </sortState>
   <conditionalFormatting sqref="A132">
-    <cfRule type="duplicateValues" dxfId="114" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="113" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="111" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="109" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="107" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="105" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="duplicateValues" dxfId="103" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="101" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="99" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="97" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B46">
-    <cfRule type="duplicateValues" dxfId="95" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="93" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="91" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="duplicateValues" dxfId="89" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="duplicateValues" dxfId="87" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="duplicateValues" dxfId="85" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="duplicateValues" dxfId="83" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:B74">
-    <cfRule type="duplicateValues" dxfId="81" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:B76">
-    <cfRule type="duplicateValues" dxfId="79" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="duplicateValues" dxfId="77" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="duplicateValues" dxfId="75" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129:B130">
-    <cfRule type="duplicateValues" dxfId="73" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137 A1:A131 A133:A1048576">
-    <cfRule type="duplicateValues" dxfId="71" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="duplicateValues" dxfId="69" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="49"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -21316,19 +21798,19 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A367">
-    <cfRule type="duplicateValues" dxfId="68" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A368:A369 A1:A366 A371:A373 A375:A1048576">
-    <cfRule type="duplicateValues" dxfId="67" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A370">
-    <cfRule type="duplicateValues" dxfId="66" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A374">
-    <cfRule type="duplicateValues" dxfId="65" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B365">
-    <cfRule type="duplicateValues" dxfId="64" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -23227,16 +23709,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A88 A90:A1048576">
-    <cfRule type="duplicateValues" dxfId="63" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="62" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D40">
-    <cfRule type="duplicateValues" dxfId="61" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D88">
-    <cfRule type="duplicateValues" dxfId="60" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="27"/>
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -23245,10 +23727,10 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="59" priority="29" rank="10"/>
+    <cfRule type="top10" dxfId="55" priority="29" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D55">
-    <cfRule type="duplicateValues" dxfId="58" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24486,10 +24968,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A40">
-    <cfRule type="duplicateValues" dxfId="57" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A66 A68:A120">
-    <cfRule type="duplicateValues" dxfId="56" priority="37"/>
+    <cfRule type="top10" dxfId="52" priority="39" rank="10"/>
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -24498,32 +24980,33 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="55" priority="39" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A55">
-    <cfRule type="duplicateValues" dxfId="54" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67">
-    <cfRule type="duplicateValues" dxfId="53" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:A120">
-    <cfRule type="duplicateValues" dxfId="52" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127">
-    <cfRule type="duplicateValues" dxfId="51" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A147">
-    <cfRule type="duplicateValues" dxfId="50" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A148">
-    <cfRule type="duplicateValues" dxfId="49" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150">
-    <cfRule type="duplicateValues" dxfId="48" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106:B114">
-    <cfRule type="duplicateValues" dxfId="47" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="9"/>
+    <cfRule type="top10" dxfId="43" priority="11" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="8"/>
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -24532,11 +25015,10 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="45" priority="11" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119:B120">
-    <cfRule type="duplicateValues" dxfId="44" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="23"/>
+    <cfRule type="top10" dxfId="39" priority="25" rank="10"/>
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -24545,11 +25027,11 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="42" priority="25" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="41" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="18"/>
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -24558,17 +25040,15 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="39" priority="21" rank="10"/>
+    <cfRule type="top10" dxfId="35" priority="21" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:B134">
-    <cfRule type="duplicateValues" dxfId="38" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B147:B148">
-    <cfRule type="duplicateValues" dxfId="37" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B149:B150">
-    <cfRule type="duplicateValues" dxfId="36" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="5"/>
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -24577,18 +25057,5945 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="34" priority="7" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="4"/>
+    <cfRule type="top10" dxfId="30" priority="7" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB7D143-5C99-844F-AC3D-C7BECDDC8151}">
+  <dimension ref="A1:B738"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="57" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4062</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4063</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>598</v>
+      </c>
+      <c r="B26" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>599</v>
+      </c>
+      <c r="B29" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>601</v>
+      </c>
+      <c r="B30" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>260</v>
+      </c>
+      <c r="B39" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>606</v>
+      </c>
+      <c r="B45" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>608</v>
+      </c>
+      <c r="B47" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>610</v>
+      </c>
+      <c r="B49" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>612</v>
+      </c>
+      <c r="B53" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>616</v>
+      </c>
+      <c r="B54" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>224</v>
+      </c>
+      <c r="B58" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>366</v>
+      </c>
+      <c r="B68" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>623</v>
+      </c>
+      <c r="B69" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>625</v>
+      </c>
+      <c r="B77" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>627</v>
+      </c>
+      <c r="B79" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>631</v>
+      </c>
+      <c r="B80" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>633</v>
+      </c>
+      <c r="B81" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>135</v>
+      </c>
+      <c r="B85" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>635</v>
+      </c>
+      <c r="B87" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>44</v>
+      </c>
+      <c r="B92" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>646</v>
+      </c>
+      <c r="B95" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>4064</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>652</v>
+      </c>
+      <c r="B97" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>286</v>
+      </c>
+      <c r="B102" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>279</v>
+      </c>
+      <c r="B107" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>90</v>
+      </c>
+      <c r="B116" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>3125</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>4065</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>4066</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>4067</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>314</v>
+      </c>
+      <c r="B133" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>76</v>
+      </c>
+      <c r="B138" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>4068</v>
+      </c>
+      <c r="B140" t="s">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>369</v>
+      </c>
+      <c r="B150" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>304</v>
+      </c>
+      <c r="B152" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>62</v>
+      </c>
+      <c r="B154" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>4069</v>
+      </c>
+      <c r="B155" t="s">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>4070</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>677</v>
+      </c>
+      <c r="B161" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>375</v>
+      </c>
+      <c r="B162" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>294</v>
+      </c>
+      <c r="B164" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>682</v>
+      </c>
+      <c r="B166" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>4071</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>84</v>
+      </c>
+      <c r="B174" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>292</v>
+      </c>
+      <c r="B186" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B191" t="s">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>687</v>
+      </c>
+      <c r="B192" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>4073</v>
+      </c>
+      <c r="B196" t="s">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>166</v>
+      </c>
+      <c r="B200" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>689</v>
+      </c>
+      <c r="B201" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>691</v>
+      </c>
+      <c r="B205" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>4074</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>4075</v>
+      </c>
+      <c r="B214" t="s">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>4076</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>290</v>
+      </c>
+      <c r="B217" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>699</v>
+      </c>
+      <c r="B219" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>3</v>
+      </c>
+      <c r="B222" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>116</v>
+      </c>
+      <c r="B223" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>706</v>
+      </c>
+      <c r="B225" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>710</v>
+      </c>
+      <c r="B234" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B236" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>4077</v>
+      </c>
+      <c r="B240" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>712</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B242" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>82</v>
+      </c>
+      <c r="B261" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>31</v>
+      </c>
+      <c r="B271" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>722</v>
+      </c>
+      <c r="B280" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>4078</v>
+      </c>
+      <c r="B287" t="s">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>4079</v>
+      </c>
+      <c r="B288" t="s">
+        <v>4079</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>38</v>
+      </c>
+      <c r="B294" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>80</v>
+      </c>
+      <c r="B295" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>727</v>
+      </c>
+      <c r="B303" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B306" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>4080</v>
+      </c>
+      <c r="B307" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>731</v>
+      </c>
+      <c r="B308" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>188</v>
+      </c>
+      <c r="B316" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>276</v>
+      </c>
+      <c r="B318" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>316</v>
+      </c>
+      <c r="B319" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>745</v>
+      </c>
+      <c r="B322" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>4081</v>
+      </c>
+      <c r="B328" t="s">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>750</v>
+      </c>
+      <c r="B329" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>754</v>
+      </c>
+      <c r="B340" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>107</v>
+      </c>
+      <c r="B352" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>763</v>
+      </c>
+      <c r="B353" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>766</v>
+      </c>
+      <c r="B358" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>4082</v>
+      </c>
+      <c r="B359" t="s">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>770</v>
+      </c>
+      <c r="B360" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>56</v>
+      </c>
+      <c r="B361" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>780</v>
+      </c>
+      <c r="B362" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B363" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>784</v>
+      </c>
+      <c r="B366" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>383</v>
+      </c>
+      <c r="B374" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>4083</v>
+      </c>
+      <c r="B376" t="s">
+        <v>4083</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>4084</v>
+      </c>
+      <c r="B377" t="s">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>269</v>
+      </c>
+      <c r="B379" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>149</v>
+      </c>
+      <c r="B382" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>42</v>
+      </c>
+      <c r="B383" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>250</v>
+      </c>
+      <c r="B398" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>803</v>
+      </c>
+      <c r="B415" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B417" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B419" t="s">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>25</v>
+      </c>
+      <c r="B421" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>267</v>
+      </c>
+      <c r="B424" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>52</v>
+      </c>
+      <c r="B425" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>98</v>
+      </c>
+      <c r="B427" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>3424</v>
+      </c>
+      <c r="B430" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>153</v>
+      </c>
+      <c r="B434" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>60</v>
+      </c>
+      <c r="B436" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B444" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>104</v>
+      </c>
+      <c r="B447" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B454" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>271</v>
+      </c>
+      <c r="B455" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B462" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>349</v>
+      </c>
+      <c r="B492" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>86</v>
+      </c>
+      <c r="B493" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>78</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>4086</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>170</v>
+      </c>
+      <c r="B505" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>327</v>
+      </c>
+      <c r="B506" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>246</v>
+      </c>
+      <c r="B511" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>903</v>
+      </c>
+      <c r="B517" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>176</v>
+      </c>
+      <c r="B527" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>906</v>
+      </c>
+      <c r="B532" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>360</v>
+      </c>
+      <c r="B533" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>911</v>
+      </c>
+      <c r="B535" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B537" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>343</v>
+      </c>
+      <c r="B538" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>243</v>
+      </c>
+      <c r="B539" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>145</v>
+      </c>
+      <c r="B541" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>95</v>
+      </c>
+      <c r="B546" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>252</v>
+      </c>
+      <c r="B547" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>931</v>
+      </c>
+      <c r="B548" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>160</v>
+      </c>
+      <c r="B549" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>234</v>
+      </c>
+      <c r="B555" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>46</v>
+      </c>
+      <c r="B558" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>937</v>
+      </c>
+      <c r="B561" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>939</v>
+      </c>
+      <c r="B567" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>34</v>
+      </c>
+      <c r="B568" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>941</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>15</v>
+      </c>
+      <c r="B574" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576" s="8" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B576" s="8" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>226</v>
+      </c>
+      <c r="B577" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>178</v>
+      </c>
+      <c r="B578" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>951</v>
+      </c>
+      <c r="B580" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>29</v>
+      </c>
+      <c r="B592" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B598" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>119</v>
+      </c>
+      <c r="B602" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>963</v>
+      </c>
+      <c r="B603" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>202</v>
+      </c>
+      <c r="B605" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>379</v>
+      </c>
+      <c r="B608" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>281</v>
+      </c>
+      <c r="B611" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>50</v>
+      </c>
+      <c r="B612" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>973</v>
+      </c>
+      <c r="B613" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>58</v>
+      </c>
+      <c r="B614" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>977</v>
+      </c>
+      <c r="B615" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>256</v>
+      </c>
+      <c r="B616" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>976</v>
+      </c>
+      <c r="B617" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>354</v>
+      </c>
+      <c r="B621" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>27</v>
+      </c>
+      <c r="B624" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>987</v>
+      </c>
+      <c r="B626" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>125</v>
+      </c>
+      <c r="B627" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B628" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>996</v>
+      </c>
+      <c r="B629" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>230</v>
+      </c>
+      <c r="B632" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>254</v>
+      </c>
+      <c r="B633" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>998</v>
+      </c>
+      <c r="B635" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>4087</v>
+      </c>
+      <c r="B639" t="s">
+        <v>4087</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>209</v>
+      </c>
+      <c r="B643" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>212</v>
+      </c>
+      <c r="B651" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>300</v>
+      </c>
+      <c r="B652" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>283</v>
+      </c>
+      <c r="B657" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>258</v>
+      </c>
+      <c r="B659" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>113</v>
+      </c>
+      <c r="B666" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>109</v>
+      </c>
+      <c r="B669" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>23</v>
+      </c>
+      <c r="B670" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>263</v>
+      </c>
+      <c r="B672" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>309</v>
+      </c>
+      <c r="B678" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>74</v>
+      </c>
+      <c r="B681" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>129</v>
+      </c>
+      <c r="B683" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>133</v>
+      </c>
+      <c r="B687" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>139</v>
+      </c>
+      <c r="B689" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>72</v>
+      </c>
+      <c r="B692" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B698" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>190</v>
+      </c>
+      <c r="B702" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>686</v>
+      </c>
+      <c r="B708" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>156</v>
+      </c>
+      <c r="B713" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B714" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>66</v>
+      </c>
+      <c r="B720" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B730" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B732" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>70</v>
+      </c>
+      <c r="B733" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A735" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B735" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A736" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B736" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A737" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A738" t="s">
+        <v>123</v>
+      </c>
+      <c r="B738" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A483:A1048576 A1:A481">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D30989D-EB1A-994E-ACCC-8DACE10B37C1}">
   <dimension ref="A1:C1845"/>
   <sheetViews>
-    <sheetView topLeftCell="A920" workbookViewId="0">
-      <selection activeCell="B929" sqref="B929"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39366,41 +45773,41 @@
   </sortState>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="A1846:A1048576 A1:A1838">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
-    <cfRule type="top10" dxfId="32" priority="2" rank="10"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+    <cfRule type="top10" dxfId="28" priority="2" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1846:A1048576 B1799 A1:A1754 A1756:A1803 B1802 B1754:B1755 A1805:A1813 A1815:A1825 B1813:B1814 A1827:A1836">
-    <cfRule type="duplicateValues" dxfId="31" priority="12" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="12" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1164">
-    <cfRule type="duplicateValues" dxfId="30" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1213">
-    <cfRule type="duplicateValues" dxfId="29" priority="6" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="6" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1539:B1540">
-    <cfRule type="duplicateValues" dxfId="28" priority="11" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="11" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1559">
-    <cfRule type="duplicateValues" dxfId="27" priority="10" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="10" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1675">
-    <cfRule type="duplicateValues" dxfId="26" priority="9" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="9" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1713:B1730">
-    <cfRule type="duplicateValues" dxfId="25" priority="8" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="8" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1745">
-    <cfRule type="duplicateValues" dxfId="24" priority="7" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="7" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1829">
-    <cfRule type="duplicateValues" dxfId="23" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BA0667-390C-4048-A3CC-D5D084AB8A38}">
   <dimension ref="A1:A829"/>
   <sheetViews>
@@ -43563,16 +49970,16 @@
     <sortCondition ref="A1:A822"/>
   </sortState>
   <conditionalFormatting sqref="A823:A827">
-    <cfRule type="duplicateValues" dxfId="22" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="236"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1510:A1048576 A1:A822">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BFD8A4-E135-FA4D-B269-B812D7D45D4D}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -43837,481 +50244,38 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A11">
-    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12 A14:A16">
-    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A20">
-    <cfRule type="duplicateValues" dxfId="16" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A37">
-    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE31DFB-E9FE-4B44-A0BB-A951970C5DFB}">
-  <dimension ref="A1:M36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="46.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="42.5" customWidth="1"/>
-    <col min="6" max="6" width="57.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.33203125" customWidth="1"/>
-    <col min="11" max="11" width="40.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>3426</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3427</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>3428</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3429</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3430</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2925</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>976</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2435</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2434</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3431</v>
-      </c>
-      <c r="J2" t="s">
-        <v>340</v>
-      </c>
-      <c r="K2" t="s">
-        <v>274</v>
-      </c>
-      <c r="L2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2060</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3432</v>
-      </c>
-      <c r="J3" t="s">
-        <v>913</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>3433</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2927</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2114</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2108</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3434</v>
-      </c>
-      <c r="J4" t="s">
-        <v>971</v>
-      </c>
-      <c r="K4" t="s">
-        <v>2944</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>3435</v>
-      </c>
-      <c r="M4" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3436</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2030</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3437</v>
-      </c>
-      <c r="J5" t="s">
-        <v>978</v>
-      </c>
-      <c r="K5" t="s">
-        <v>256</v>
-      </c>
-      <c r="L5" t="s">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D6" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" t="s">
-        <v>754</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3438</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1494</v>
-      </c>
-      <c r="K6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D7" s="17" t="s">
-        <v>2524</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3439</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2521</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3440</v>
-      </c>
-      <c r="J7" t="s">
-        <v>1787</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" t="s">
-        <v>945</v>
-      </c>
-      <c r="M7" t="s">
-        <v>3441</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D8" s="17" t="s">
-        <v>3442</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" t="s">
-        <v>3196</v>
-      </c>
-      <c r="G8" t="s">
-        <v>3434</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1034</v>
-      </c>
-      <c r="K8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>3075</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>1881</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>3443</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" t="s">
-        <v>1553</v>
-      </c>
-      <c r="J9" t="s">
-        <v>3425</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D10" s="17" t="s">
-        <v>3444</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="J10" t="s">
-        <v>1810</v>
-      </c>
-      <c r="K10" t="s">
-        <v>2927</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>2907</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>3445</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" t="s">
-        <v>3446</v>
-      </c>
-      <c r="G11" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>2094</v>
-      </c>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D13" s="19" t="s">
-        <v>3450</v>
-      </c>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D14" s="19" t="s">
-        <v>2814</v>
-      </c>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>3451</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>3452</v>
-      </c>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>3453</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>3454</v>
-      </c>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>3455</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>3456</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
-        <v>2723</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>3448</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
-        <v>834</v>
-      </c>
-      <c r="E21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
-        <v>636</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D23" t="s">
-        <v>844</v>
-      </c>
-      <c r="E23" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>3459</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1921</v>
-      </c>
-      <c r="E24" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
-        <v>3460</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1553</v>
-      </c>
-      <c r="E25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D26" s="16" t="s">
-        <v>3075</v>
-      </c>
-      <c r="E26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>3075</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>1881</v>
-      </c>
-      <c r="E27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
-        <v>3461</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D29" s="1" t="s">
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D30" s="20" t="s">
-        <v>3458</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D32" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D36" t="s">
-        <v>880</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>